--- a/artfynd/A 73093-2021.xlsx
+++ b/artfynd/A 73093-2021.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY4"/>
+  <dimension ref="A1:AY5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -928,7 +928,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>6762359</v>
+        <v>6760838</v>
       </c>
       <c r="B4" t="n">
         <v>96239</v>
@@ -961,20 +961,29 @@
           <t>L.</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr"/>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>146</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>överblommad</t>
+        </is>
+      </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>SÖDER LISSKÄRRET (11J9d07), Upl</t>
+          <t>Södra Råda, vid Messmyrarnas SV-ände, Upl</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>713765.1690587909</v>
+        <v>713747.0846395431</v>
       </c>
       <c r="R4" t="n">
-        <v>6645979.3647141</v>
+        <v>6645995.92114509</v>
       </c>
       <c r="S4" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="T4" t="inlineStr">
         <is>
@@ -998,7 +1007,7 @@
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>1994-04-06</t>
+          <t>2006-06-26</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
@@ -1008,7 +1017,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>1994-04-06</t>
+          <t>2006-06-26</t>
         </is>
       </c>
       <c r="AB4" t="inlineStr">
@@ -1018,7 +1027,7 @@
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>110993071 / CYPR CAL / Tämligen allmän (2)  / OBJ.AREA:0,1 ha</t>
+          <t>Endast blommande stjälkar räknade.</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1033,15 +1042,136 @@
       <c r="AT4" t="inlineStr"/>
       <c r="AW4" t="inlineStr">
         <is>
+          <t>Gabriel Ekman</t>
+        </is>
+      </c>
+      <c r="AX4" t="inlineStr">
+        <is>
+          <t>Gabriel Ekman</t>
+        </is>
+      </c>
+      <c r="AY4" t="inlineStr">
+        <is>
+          <t>Floraväkteri AB-län</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>6762359</v>
+      </c>
+      <c r="B5" t="n">
+        <v>96239</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>504</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Guckusko</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Cypripedium calceolus</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>L.</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>SÖDER LISSKÄRRET (11J9d07), Upl</t>
+        </is>
+      </c>
+      <c r="Q5" t="n">
+        <v>713765.1690587909</v>
+      </c>
+      <c r="R5" t="n">
+        <v>6645979.3647141</v>
+      </c>
+      <c r="S5" t="n">
+        <v>25</v>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>Stockholm</t>
+        </is>
+      </c>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>Norrtälje</t>
+        </is>
+      </c>
+      <c r="V5" t="inlineStr">
+        <is>
+          <t>Uppland</t>
+        </is>
+      </c>
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>Söderby-Karl</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>1994-04-06</t>
+        </is>
+      </c>
+      <c r="Z5" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA5" t="inlineStr">
+        <is>
+          <t>1994-04-06</t>
+        </is>
+      </c>
+      <c r="AB5" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC5" t="inlineStr">
+        <is>
+          <t>110993071 / CYPR CAL / Tämligen allmän (2)  / OBJ.AREA:0,1 ha</t>
+        </is>
+      </c>
+      <c r="AD5" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE5" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG5" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT5" t="inlineStr"/>
+      <c r="AW5" t="inlineStr">
+        <is>
           <t>Niklas Lönnell</t>
         </is>
       </c>
-      <c r="AX4" t="inlineStr">
+      <c r="AX5" t="inlineStr">
         <is>
           <t>Stefan Eklund</t>
         </is>
       </c>
-      <c r="AY4" t="inlineStr">
+      <c r="AY5" t="inlineStr">
         <is>
           <t>Skogsstyrelsens naturvärdesobjekt</t>
         </is>
